--- a/教师信息上传示例表.xlsx
+++ b/教师信息上传示例表.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>编号</t>
   </si>
   <si>
     <t>年龄</t>
-  </si>
-  <si>
-    <t>姓名1</t>
   </si>
   <si>
     <t>性别</t>
@@ -33,6 +33,9 @@
   <si>
     <t>男</t>
   </si>
+  <si>
+    <t>sunshinenny</t>
+  </si>
 </sst>
 </file>
 
@@ -40,11 +43,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +57,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -61,62 +108,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,23 +138,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,7 +186,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,39 +194,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -213,187 +209,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,17 +403,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,20 +438,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,9 +462,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,159 +486,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,17 +964,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333"/>
-    <col min="2" max="2" width="9.55833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.88333333333333"/>
+    <col min="3" max="3" width="9.55833333333333" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="6.88333333333333" customWidth="1"/>
     <col min="6" max="6" width="6.55833333333333" customWidth="1"/>
@@ -986,7 +982,7 @@
     <col min="8" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,19 +995,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>1001</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/教师信息上传示例表.xlsx
+++ b/教师信息上传示例表.xlsx
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,12 +57,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -79,44 +133,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,73 +185,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,19 +209,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,163 +305,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,24 +400,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,11 +418,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +474,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -470,46 +500,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +518,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,25 +964,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="8.88333333333333"/>
-    <col min="3" max="3" width="9.55833333333333" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="6.88333333333333" customWidth="1"/>
-    <col min="6" max="6" width="6.55833333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.1083333333333" customWidth="1"/>
-    <col min="8" max="16384" width="8.88333333333333"/>
+    <col min="3" max="4" width="9.55833333333333" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="6.88333333333333" customWidth="1"/>
+    <col min="7" max="7" width="6.55833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.1083333333333" customWidth="1"/>
+    <col min="9" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -992,14 +992,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1009,10 +1009,10 @@
       <c r="C2">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/教师信息上传示例表.xlsx
+++ b/教师信息上传示例表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>name</t>
   </si>
@@ -28,10 +28,13 @@
     <t>性别</t>
   </si>
   <si>
-    <t>陶宇豪</t>
+    <t>姓名</t>
   </si>
   <si>
     <t>男</t>
+  </si>
+  <si>
+    <t>陶宇豪</t>
   </si>
   <si>
     <t>sunshinenny</t>
@@ -42,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,15 +60,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,32 +74,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +95,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -133,22 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,24 +173,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,18 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,19 +212,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,13 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,13 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,127 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +403,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,17 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,41 +463,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,16 +494,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +521,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,13 +967,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="8.88333333333333"/>
@@ -982,7 +985,7 @@
     <col min="9" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,12 +999,15 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1001</v>
@@ -1013,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/教师信息上传示例表.xlsx
+++ b/教师信息上传示例表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="7260"/>
+    <workbookView windowWidth="28680" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>年龄</t>
   </si>
   <si>
+    <t>邮件</t>
+  </si>
+  <si>
     <t>性别</t>
   </si>
   <si>
@@ -33,22 +36,16 @@
   <si>
     <t>男</t>
   </si>
-  <si>
-    <t>陶宇豪</t>
-  </si>
-  <si>
-    <t>sunshinenny</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,6 +56,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -80,10 +85,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,67 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -172,22 +155,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -195,9 +162,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,109 +215,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,67 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +400,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,17 +453,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,15 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,171 +500,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,25 +964,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="8.88333333333333"/>
-    <col min="3" max="4" width="9.55833333333333" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="6.88333333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.55833333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.1083333333333" customWidth="1"/>
-    <col min="9" max="16384" width="8.88333333333333"/>
+    <col min="3" max="5" width="9.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="6.88333333333333" customWidth="1"/>
+    <col min="8" max="8" width="6.55833333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.1083333333333" customWidth="1"/>
+    <col min="10" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1004,22 +1001,8 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1001</v>
-      </c>
-      <c r="C2">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/教师信息上传示例表.xlsx
+++ b/教师信息上传示例表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13665"/>
+    <workbookView windowWidth="18615" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>name</t>
   </si>
@@ -31,10 +31,16 @@
     <t>性别</t>
   </si>
   <si>
+    <t>手机号</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
     <t>男</t>
+  </si>
+  <si>
+    <t>地址</t>
   </si>
 </sst>
 </file>
@@ -42,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,6 +62,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -64,70 +136,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,16 +175,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,39 +198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,31 +215,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,19 +359,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,126 +396,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,13 +409,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,8 +466,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,9 +489,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,38 +501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,10 +512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +524,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,25 +970,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="8.88333333333333"/>
     <col min="3" max="5" width="9.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="6.88333333333333" customWidth="1"/>
-    <col min="8" max="8" width="6.55833333333333" customWidth="1"/>
-    <col min="9" max="9" width="16.1083333333333" customWidth="1"/>
-    <col min="10" max="16384" width="8.88333333333333"/>
+    <col min="6" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="6.88333333333333" customWidth="1"/>
+    <col min="9" max="9" width="6.55833333333333" customWidth="1"/>
+    <col min="10" max="10" width="16.1083333333333" customWidth="1"/>
+    <col min="11" max="16384" width="8.88333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1004,6 +1010,12 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/教师信息上传示例表.xlsx
+++ b/教师信息上传示例表.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
-    <t>name</t>
+    <t>编号</t>
   </si>
   <si>
-    <t>编号</t>
+    <t>教师姓名</t>
   </si>
   <si>
     <t>年龄</t>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,6 +63,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -80,14 +87,6 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,7 +99,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,62 +107,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,21 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -198,9 +129,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,26 +409,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,45 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -501,8 +477,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,145 +512,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,13 +973,13 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.88333333333333"/>
+    <col min="1" max="1" width="8.88333333333333"/>
+    <col min="2" max="2" width="10.4416666666667" customWidth="1"/>
     <col min="3" max="5" width="9.55833333333333" customWidth="1"/>
     <col min="6" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="6.88333333333333" customWidth="1"/>
